--- a/simulation_data/two_step_algorithm/2s_error_level_4_percent_water_99.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_4_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>91.74919027516776</v>
+        <v>91.82832455056381</v>
       </c>
       <c r="D2" t="n">
-        <v>11.51828066018272</v>
+        <v>10.88289419485307</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.40628033989928</v>
+        <v>90.12761473265469</v>
       </c>
       <c r="D3" t="n">
-        <v>11.71339799381036</v>
+        <v>9.798635097686075</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.99828629435682</v>
+        <v>89.82785915879148</v>
       </c>
       <c r="D4" t="n">
-        <v>11.30388859933067</v>
+        <v>10.64379557971965</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.66546225103542</v>
+        <v>90.23778281851921</v>
       </c>
       <c r="D5" t="n">
-        <v>9.809013265141916</v>
+        <v>11.04189592448275</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.98554464520132</v>
+        <v>86.87642679811174</v>
       </c>
       <c r="D6" t="n">
-        <v>12.23959523442962</v>
+        <v>10.5319394585478</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.25890506190797</v>
+        <v>85.56310316340097</v>
       </c>
       <c r="D7" t="n">
-        <v>10.91613445062905</v>
+        <v>10.08639913262877</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.90400531798068</v>
+        <v>86.32363200519364</v>
       </c>
       <c r="D8" t="n">
-        <v>11.2508208425626</v>
+        <v>10.32244070874817</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.94788945221592</v>
+        <v>85.43091562811249</v>
       </c>
       <c r="D9" t="n">
-        <v>9.727384199642248</v>
+        <v>10.73474304095887</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.950211287071</v>
+        <v>84.25855370102725</v>
       </c>
       <c r="D10" t="n">
-        <v>10.87945188142386</v>
+        <v>11.32173045194749</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.7005331381545</v>
+        <v>81.2340114808799</v>
       </c>
       <c r="D11" t="n">
-        <v>9.806973965334889</v>
+        <v>11.51110832300417</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.59026427178031</v>
+        <v>81.00982207485612</v>
       </c>
       <c r="D12" t="n">
-        <v>9.631563141335025</v>
+        <v>11.44093823970587</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>82.3272026612719</v>
+        <v>80.57930807099046</v>
       </c>
       <c r="D13" t="n">
-        <v>10.75269305036835</v>
+        <v>11.50976390588723</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.29295005557623</v>
+        <v>76.84427581763383</v>
       </c>
       <c r="D14" t="n">
-        <v>11.80231048990969</v>
+        <v>9.780513670126071</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.64538352235651</v>
+        <v>78.40333258801736</v>
       </c>
       <c r="D15" t="n">
-        <v>10.57863141436162</v>
+        <v>9.871845040095144</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.79916172493084</v>
+        <v>78.49242727525544</v>
       </c>
       <c r="D16" t="n">
-        <v>11.68961469891938</v>
+        <v>9.966604046068698</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.82174748142722</v>
+        <v>75.76650539200082</v>
       </c>
       <c r="D17" t="n">
-        <v>11.20995952493799</v>
+        <v>10.39452758793401</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.61945903963793</v>
+        <v>75.78047230108969</v>
       </c>
       <c r="D18" t="n">
-        <v>9.768829633196006</v>
+        <v>10.60008784501335</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.86327558873818</v>
+        <v>75.97982444914207</v>
       </c>
       <c r="D19" t="n">
-        <v>9.8541802661401</v>
+        <v>9.762208512887552</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>75.11858955435088</v>
+        <v>74.78520298942871</v>
       </c>
       <c r="D20" t="n">
-        <v>9.921910812629173</v>
+        <v>10.43830958118969</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.18037146615065</v>
+        <v>74.69271998157582</v>
       </c>
       <c r="D21" t="n">
-        <v>10.77572452398136</v>
+        <v>10.90380458090724</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.67452550613707</v>
+        <v>68.96412307660289</v>
       </c>
       <c r="D22" t="n">
-        <v>10.85501846885208</v>
+        <v>11.10556883380834</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.51418144429472</v>
+        <v>70.41691409527543</v>
       </c>
       <c r="D23" t="n">
-        <v>10.17111872627697</v>
+        <v>8.601990945422218</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.60441828472069</v>
+        <v>70.25318575101305</v>
       </c>
       <c r="D24" t="n">
-        <v>10.63842893794526</v>
+        <v>9.301770910521761</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>69.90909611308807</v>
+        <v>70.26764450498929</v>
       </c>
       <c r="D25" t="n">
-        <v>10.35768331402203</v>
+        <v>10.61979433616455</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.3333263064528</v>
+        <v>69.59403919117733</v>
       </c>
       <c r="D26" t="n">
-        <v>11.25243379212625</v>
+        <v>9.348694815102846</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.23915154839473</v>
+        <v>65.72019328044689</v>
       </c>
       <c r="D27" t="n">
-        <v>11.29617252017464</v>
+        <v>11.3875080685217</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.26509470541859</v>
+        <v>64.12987186351505</v>
       </c>
       <c r="D28" t="n">
-        <v>10.24506184270223</v>
+        <v>10.12541248953984</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.5657462947438</v>
+        <v>63.25386478632803</v>
       </c>
       <c r="D29" t="n">
-        <v>10.4891109300082</v>
+        <v>9.875891620731656</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.28337454285875</v>
+        <v>61.6288622969379</v>
       </c>
       <c r="D30" t="n">
-        <v>11.6599454027708</v>
+        <v>10.92956348782304</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.88695389472758</v>
+        <v>59.00408409762576</v>
       </c>
       <c r="D31" t="n">
-        <v>10.96747522539005</v>
+        <v>10.76745504652656</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>58.5694768957505</v>
+        <v>62.03594297494564</v>
       </c>
       <c r="D32" t="n">
-        <v>10.03371735926635</v>
+        <v>11.04475689067473</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.19907946273189</v>
+        <v>59.12112013909709</v>
       </c>
       <c r="D33" t="n">
-        <v>11.88846644595849</v>
+        <v>9.015868517128137</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>56.68968571505021</v>
+        <v>58.21214352862787</v>
       </c>
       <c r="D34" t="n">
-        <v>8.320075732716054</v>
+        <v>10.55819276835959</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.93206846513968</v>
+        <v>57.6230641004332</v>
       </c>
       <c r="D35" t="n">
-        <v>10.87904825349679</v>
+        <v>10.25532051160942</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.9344620292171</v>
+        <v>56.4662492408627</v>
       </c>
       <c r="D36" t="n">
-        <v>11.94676530026259</v>
+        <v>9.495737815361759</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.07522841029147</v>
+        <v>55.22954515464367</v>
       </c>
       <c r="D37" t="n">
-        <v>10.56231736139481</v>
+        <v>9.346201777879799</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.25232441190737</v>
+        <v>56.10433993691725</v>
       </c>
       <c r="D38" t="n">
-        <v>10.40674534451404</v>
+        <v>8.848675023171667</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.47093566906597</v>
+        <v>54.815722883757</v>
       </c>
       <c r="D39" t="n">
-        <v>10.5242807224534</v>
+        <v>9.60488587446347</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.29243540898766</v>
+        <v>52.8033670700703</v>
       </c>
       <c r="D40" t="n">
-        <v>11.41056820562571</v>
+        <v>9.522786539173463</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.64220571548002</v>
+        <v>51.23003810176994</v>
       </c>
       <c r="D41" t="n">
-        <v>10.49801896153948</v>
+        <v>10.51158327064378</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.40418454865121</v>
+        <v>50.5317434084265</v>
       </c>
       <c r="D42" t="n">
-        <v>9.917539113011355</v>
+        <v>10.28555528083876</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.19384816138679</v>
+        <v>49.78767827023434</v>
       </c>
       <c r="D43" t="n">
-        <v>10.25154543892944</v>
+        <v>9.734616124411046</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>46.1965276162185</v>
+        <v>47.9301227343098</v>
       </c>
       <c r="D44" t="n">
-        <v>9.465662884784434</v>
+        <v>11.64816816046648</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>45.96808021642757</v>
+        <v>47.56326092623847</v>
       </c>
       <c r="D45" t="n">
-        <v>9.848032898088977</v>
+        <v>9.077580427451155</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.31765932555663</v>
+        <v>45.32748387134759</v>
       </c>
       <c r="D46" t="n">
-        <v>9.638777717928804</v>
+        <v>11.06976597735432</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>47.03726204875781</v>
+        <v>45.10612108334784</v>
       </c>
       <c r="D47" t="n">
-        <v>10.2621206154262</v>
+        <v>10.47401894629752</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.40663461312977</v>
+        <v>43.43907198968307</v>
       </c>
       <c r="D48" t="n">
-        <v>10.49042085737997</v>
+        <v>11.03713445768281</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>44.39119697880057</v>
+        <v>43.97715972565597</v>
       </c>
       <c r="D49" t="n">
-        <v>9.792337329264228</v>
+        <v>10.32071082015807</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.28719959768406</v>
+        <v>42.96756447171303</v>
       </c>
       <c r="D50" t="n">
-        <v>9.685278744823735</v>
+        <v>9.153970959983123</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>42.97691440619649</v>
+        <v>40.7703607244766</v>
       </c>
       <c r="D51" t="n">
-        <v>10.4308411088865</v>
+        <v>8.998211091341606</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.18566011409336</v>
+        <v>38.21971070757461</v>
       </c>
       <c r="D52" t="n">
-        <v>8.678244580439451</v>
+        <v>10.29244899171044</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>37.51586775504775</v>
+        <v>40.1344015491667</v>
       </c>
       <c r="D53" t="n">
-        <v>10.54725150961625</v>
+        <v>10.14158693727155</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.91747648786512</v>
+        <v>39.86626568493141</v>
       </c>
       <c r="D54" t="n">
-        <v>8.81750961249509</v>
+        <v>11.04347397480879</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.37973781167795</v>
+        <v>35.95542192156651</v>
       </c>
       <c r="D55" t="n">
-        <v>10.53134032397644</v>
+        <v>11.50011805145093</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.18362166841077</v>
+        <v>36.36518840455548</v>
       </c>
       <c r="D56" t="n">
-        <v>10.31451886856778</v>
+        <v>11.82092446471484</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.81388138805941</v>
+        <v>35.26785323546947</v>
       </c>
       <c r="D57" t="n">
-        <v>9.956223944747698</v>
+        <v>10.88293834444489</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.73549974723177</v>
+        <v>35.50335972310216</v>
       </c>
       <c r="D58" t="n">
-        <v>9.935980062069572</v>
+        <v>10.60055433766498</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.39671587980081</v>
+        <v>30.74321231706082</v>
       </c>
       <c r="D59" t="n">
-        <v>9.842407792930612</v>
+        <v>10.68294345456606</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.99828989711659</v>
+        <v>32.24541539451573</v>
       </c>
       <c r="D60" t="n">
-        <v>9.196319805813056</v>
+        <v>10.8269651228634</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.30897704992185</v>
+        <v>29.55080259293139</v>
       </c>
       <c r="D61" t="n">
-        <v>10.10925015167927</v>
+        <v>11.54929658184156</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>28.60335623023098</v>
+        <v>30.49999634297228</v>
       </c>
       <c r="D62" t="n">
-        <v>10.84712626126788</v>
+        <v>10.43610546033247</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.95733531639267</v>
+        <v>29.215520678089</v>
       </c>
       <c r="D63" t="n">
-        <v>10.49298784386365</v>
+        <v>11.15270151692444</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.08424303819725</v>
+        <v>27.61972505936945</v>
       </c>
       <c r="D64" t="n">
-        <v>10.43662590641141</v>
+        <v>10.46008524649946</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.62549041036955</v>
+        <v>27.23915774972001</v>
       </c>
       <c r="D65" t="n">
-        <v>11.00841617047345</v>
+        <v>10.35681720568613</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.58005348908031</v>
+        <v>26.56237738781856</v>
       </c>
       <c r="D66" t="n">
-        <v>10.53442721908706</v>
+        <v>10.7556733266384</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.09628911051641</v>
+        <v>24.10375566894991</v>
       </c>
       <c r="D67" t="n">
-        <v>10.60789427590475</v>
+        <v>10.02334156107128</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.6156095319298</v>
+        <v>23.90657170553523</v>
       </c>
       <c r="D68" t="n">
-        <v>9.242802074362096</v>
+        <v>9.976139987142863</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.11092767924825</v>
+        <v>23.20862961968032</v>
       </c>
       <c r="D69" t="n">
-        <v>9.828629127339843</v>
+        <v>9.819355585671451</v>
       </c>
     </row>
   </sheetData>
